--- a/sim2.xlsx
+++ b/sim2.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="nontree" sheetId="3" r:id="rId1"/>
     <sheet name="fulltree" sheetId="1" r:id="rId2"/>
-    <sheet name="fillingtree" sheetId="2" r:id="rId3"/>
+    <sheet name="3fillingtree" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="82">
   <si>
     <t>2,1,1</t>
   </si>
@@ -215,318 +215,6 @@
     <t>1,84,93.715158700943</t>
   </si>
   <si>
-    <t>2,3,0.03300786018371582</t>
-  </si>
-  <si>
-    <t>2,4,0.08301854133605957</t>
-  </si>
-  <si>
-    <t>3,6,1</t>
-  </si>
-  <si>
-    <t>2,6,0.15003347396850586</t>
-  </si>
-  <si>
-    <t>3,7,1</t>
-  </si>
-  <si>
-    <t>2,7,0.18204045295715332</t>
-  </si>
-  <si>
-    <t>3,8,1</t>
-  </si>
-  <si>
-    <t>2,8,0.2740628719329834</t>
-  </si>
-  <si>
-    <t>3,9,1</t>
-  </si>
-  <si>
-    <t>2,10,0.43523192405700684</t>
-  </si>
-  <si>
-    <t>3,10,1</t>
-  </si>
-  <si>
-    <t>2,11,0.5341215133666992</t>
-  </si>
-  <si>
-    <t>3,11,1</t>
-  </si>
-  <si>
-    <t>2,12,0.659792423248291</t>
-  </si>
-  <si>
-    <t>3,12,1</t>
-  </si>
-  <si>
-    <t>3,14,0.7351658344268799</t>
-  </si>
-  <si>
-    <t>3,13,1</t>
-  </si>
-  <si>
-    <t>3,15,0.8461921215057373</t>
-  </si>
-  <si>
-    <t>3,14,1</t>
-  </si>
-  <si>
-    <t>3,16,1.0457384586334229</t>
-  </si>
-  <si>
-    <t>3,15,1</t>
-  </si>
-  <si>
-    <t>3,18,1.3831138610839844</t>
-  </si>
-  <si>
-    <t>3,16,1</t>
-  </si>
-  <si>
-    <t>3,19,1.6248934268951416</t>
-  </si>
-  <si>
-    <t>3,17,1</t>
-  </si>
-  <si>
-    <t>3,20,1.8856866359710693</t>
-  </si>
-  <si>
-    <t>3,18,1</t>
-  </si>
-  <si>
-    <t>3,23,2.402543544769287</t>
-  </si>
-  <si>
-    <t>3,19,1</t>
-  </si>
-  <si>
-    <t>3,24,2.6626007556915283</t>
-  </si>
-  <si>
-    <t>3,20,1</t>
-  </si>
-  <si>
-    <t>3,25,3.087697744369507</t>
-  </si>
-  <si>
-    <t>3,21,1</t>
-  </si>
-  <si>
-    <t>3,27,3.3837647438049316</t>
-  </si>
-  <si>
-    <t>1,3,0.05201101303100586</t>
-  </si>
-  <si>
-    <t>1,4,0.0710151195526123</t>
-  </si>
-  <si>
-    <t>3,6,2</t>
-  </si>
-  <si>
-    <t>1,5,0.11502671241760254</t>
-  </si>
-  <si>
-    <t>3,7,2</t>
-  </si>
-  <si>
-    <t>2,6,0.19504404067993164</t>
-  </si>
-  <si>
-    <t>3,8,2</t>
-  </si>
-  <si>
-    <t>2,7,0.2690608501434326</t>
-  </si>
-  <si>
-    <t>3,9,2</t>
-  </si>
-  <si>
-    <t>2,8,0.3760848045349121</t>
-  </si>
-  <si>
-    <t>3,10,2</t>
-  </si>
-  <si>
-    <t>2,11,0.5301194190979004</t>
-  </si>
-  <si>
-    <t>3,11,2</t>
-  </si>
-  <si>
-    <t>2,12,0.664149284362793</t>
-  </si>
-  <si>
-    <t>3,12,2</t>
-  </si>
-  <si>
-    <t>2,13,0.8011865615844727</t>
-  </si>
-  <si>
-    <t>3,13,2</t>
-  </si>
-  <si>
-    <t>2,15,0.9112057685852051</t>
-  </si>
-  <si>
-    <t>3,14,2</t>
-  </si>
-  <si>
-    <t>2,16,1.1342554092407227</t>
-  </si>
-  <si>
-    <t>3,15,2</t>
-  </si>
-  <si>
-    <t>2,17,1.358306646347046</t>
-  </si>
-  <si>
-    <t>3,16,2</t>
-  </si>
-  <si>
-    <t>2,19,1.7353920936584473</t>
-  </si>
-  <si>
-    <t>3,17,2</t>
-  </si>
-  <si>
-    <t>2,20,2.028458595275879</t>
-  </si>
-  <si>
-    <t>3,18,2</t>
-  </si>
-  <si>
-    <t>2,21,2.274513006210327</t>
-  </si>
-  <si>
-    <t>3,19,2</t>
-  </si>
-  <si>
-    <t>3,23,2.6726038455963135</t>
-  </si>
-  <si>
-    <t>3,20,2</t>
-  </si>
-  <si>
-    <t>3,24,3.0812151432037354</t>
-  </si>
-  <si>
-    <t>3,21,2</t>
-  </si>
-  <si>
-    <t>3,25,3.35756254196167</t>
-  </si>
-  <si>
-    <t>3,4,3</t>
-  </si>
-  <si>
-    <t>1,3,0.04100608825683594</t>
-  </si>
-  <si>
-    <t>3,5,3</t>
-  </si>
-  <si>
-    <t>1,4,0.07001590728759766</t>
-  </si>
-  <si>
-    <t>3,6,3</t>
-  </si>
-  <si>
-    <t>1,5,0.10802435874938965</t>
-  </si>
-  <si>
-    <t>3,7,3</t>
-  </si>
-  <si>
-    <t>1,6,0.15003418922424316</t>
-  </si>
-  <si>
-    <t>3,8,3</t>
-  </si>
-  <si>
-    <t>1,7,0.24805641174316406</t>
-  </si>
-  <si>
-    <t>3,9,3</t>
-  </si>
-  <si>
-    <t>1,8,0.29506635665893555</t>
-  </si>
-  <si>
-    <t>3,10,3</t>
-  </si>
-  <si>
-    <t>1,9,0.3740849494934082</t>
-  </si>
-  <si>
-    <t>3,11,3</t>
-  </si>
-  <si>
-    <t>1,10,0.5751349925994873</t>
-  </si>
-  <si>
-    <t>3,12,3</t>
-  </si>
-  <si>
-    <t>1,11,0.7015447616577148</t>
-  </si>
-  <si>
-    <t>3,13,3</t>
-  </si>
-  <si>
-    <t>1,12,0.8175265789031982</t>
-  </si>
-  <si>
-    <t>3,14,3</t>
-  </si>
-  <si>
-    <t>1,13,1.035233736038208</t>
-  </si>
-  <si>
-    <t>3,15,3</t>
-  </si>
-  <si>
-    <t>1,14,1.2382802963256836</t>
-  </si>
-  <si>
-    <t>3,16,3</t>
-  </si>
-  <si>
-    <t>1,15,1.4573280811309814</t>
-  </si>
-  <si>
-    <t>3,17,3</t>
-  </si>
-  <si>
-    <t>1,16,1.7053852081298828</t>
-  </si>
-  <si>
-    <t>3,18,3</t>
-  </si>
-  <si>
-    <t>1,17,1.9664435386657715</t>
-  </si>
-  <si>
-    <t>3,19,3</t>
-  </si>
-  <si>
-    <t>1,18,2.1884939670562744</t>
-  </si>
-  <si>
-    <t>3,20,3</t>
-  </si>
-  <si>
-    <t>1,19,2.6235930919647217</t>
-  </si>
-  <si>
-    <t>3,21,3</t>
-  </si>
-  <si>
-    <t>1,20,2.867647647857666</t>
-  </si>
-  <si>
     <t>dimensions</t>
   </si>
   <si>
@@ -564,6 +252,21 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>nr_of_nodes</t>
+  </si>
+  <si>
+    <t>move_counted</t>
+  </si>
+  <si>
+    <t>m=1</t>
+  </si>
+  <si>
+    <t>m=2</t>
+  </si>
+  <si>
+    <t>m=3</t>
   </si>
 </sst>
 </file>
@@ -666,7 +369,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1533,7 +1235,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3529,7 +3230,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3943,7 +3643,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5199,7 +4898,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5613,7 +5311,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6027,7 +5724,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6441,7 +6137,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6880,7 +6575,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7729,7 +7423,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7811,7 +7504,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9038,6 +8730,3469 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>m=1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45843044619422574"/>
+          <c:y val="5.5555555555555552E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nr_of_agents</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3fillingtree'!$B$3:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B17D-404B-9143-939D5309217C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>move_counted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3fillingtree'!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B17D-404B-9143-939D5309217C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3fillingtree'!$D$3:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.3007860183715799E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3018541336059501E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.150033473968505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18204045295715299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27406287193298301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.435231924057006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.534121513366699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65979242324829102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73516583442687899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84619212150573697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.04573845863342</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3831138610839799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.62489342689514</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.88568663597106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.40254354476928</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6626007556915199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0876977443695002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3837647438049299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B17D-404B-9143-939D5309217C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1456489472"/>
+        <c:axId val="1456483648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1456489472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456483648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1456483648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456489472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3fillingtree'!$D$3:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.3007860183715799E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3018541336059501E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.150033473968505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18204045295715299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27406287193298301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.435231924057006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.534121513366699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65979242324829102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73516583442687899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84619212150573697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.04573845863342</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3831138610839799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.62489342689514</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.88568663597106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.40254354476928</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6626007556915199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0876977443695002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3837647438049299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A412-4020-A249-BB57C5A17F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1455073584"/>
+        <c:axId val="1456476576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1455073584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456476576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1456476576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455073584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$23:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3fillingtree'!$D$23:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.2011013031005797E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1015119552612305E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.115026712417602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.195044040679931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26906085014343201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.376084804534912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53011941909789995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66414928436279297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80118656158447199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91120576858520497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.13425540924072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3583066463470399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7353920936584399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.02845859527587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.27451300621032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6726038455963099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.08121514320373</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3575625419616699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14AC-440A-B9BE-E6CB341F3D86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1465592368"/>
+        <c:axId val="1465581136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1465592368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465581136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1465581136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465592368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>m=3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nr_of_agents</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$43:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3fillingtree'!$B$43:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A0C-4D12-9D16-B0F94364C7B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>move_counted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$43:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3fillingtree'!$C$43:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A0C-4D12-9D16-B0F94364C7B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$43:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3fillingtree'!$D$43:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4.1006088256835903E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0015907287597601E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108024358749389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.150034189224243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24805641174316401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29506635665893499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37408494949340798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57513499259948697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70154476165771396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81752657890319802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0352337360382</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.23828029632568</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4573280811309799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7053852081298799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9664435386657699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.18849396705627</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6235930919647199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8676476478576598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A0C-4D12-9D16-B0F94364C7B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1465578224"/>
+        <c:axId val="1465567408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1465578224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465567408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1465567408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465578224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>m=2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nr_of_agents</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$23:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3fillingtree'!$B$23:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8A3-42D0-9F77-DF0BF751263A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>move_counted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$23:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3fillingtree'!$C$23:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8A3-42D0-9F77-DF0BF751263A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$23:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3fillingtree'!$D$23:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.2011013031005797E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1015119552612305E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.115026712417602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.195044040679931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26906085014343201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.376084804534912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53011941909789995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66414928436279297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80118656158447199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91120576858520497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.13425540924072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3583066463470399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7353920936584399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.02845859527587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.27451300621032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6726038455963099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.08121514320373</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3575625419616699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A8A3-42D0-9F77-DF0BF751263A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1456481984"/>
+        <c:axId val="1456482816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1456481984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456482816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1456482816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456481984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3fillingtree'!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3fillingtree'!$A$43:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3fillingtree'!$D$43:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4.1006088256835903E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0015907287597601E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108024358749389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.150034189224243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24805641174316401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29506635665893499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37408494949340798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57513499259948697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70154476165771396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81752657890319802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0352337360382</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.23828029632568</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4573280811309799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7053852081298799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9664435386657699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.18849396705627</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6235930919647199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8676476478576598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F238-4118-BB7F-CA90CC8CF00C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1465585712"/>
+        <c:axId val="1465568656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1465585712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465568656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1465568656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465585712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -9078,7 +12233,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9927,7 +13081,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10034,7 +13187,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10901,7 +14053,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11009,7 +14160,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11858,7 +15008,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11970,7 +15119,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12819,7 +15967,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12927,7 +16074,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13776,7 +16922,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13884,7 +17029,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14733,7 +17877,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14845,7 +17988,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15694,7 +18836,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16361,6 +19502,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -23866,6 +27247,3102 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -28658,6 +35135,191 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagram 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagram 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagram 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
@@ -28923,7 +35585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+    <sheetView topLeftCell="A211" workbookViewId="0">
       <selection activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
@@ -28931,28 +35593,28 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="E1">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -28960,19 +35622,19 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -29358,28 +36020,28 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -29389,19 +36051,19 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -29750,28 +36412,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -29779,19 +36441,19 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -30136,28 +36798,28 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="H67" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="I67">
         <v>2</v>
@@ -30165,19 +36827,19 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -30522,28 +37184,28 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="D89" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="E89">
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="H89" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="I89">
         <v>3</v>
@@ -30551,19 +37213,19 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D90" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -30908,34 +37570,34 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="D111" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="E111" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="F111" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="G111">
         <v>2</v>
       </c>
       <c r="H111" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="I111" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="J111" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -30943,19 +37605,19 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C112" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E112" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -31300,34 +37962,34 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="C133" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="D133" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="E133" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="F133" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="G133">
         <v>2</v>
       </c>
       <c r="H133" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="I133" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="J133" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="K133">
         <v>2</v>
@@ -31335,19 +37997,19 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B134" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C134" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D134" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E134" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -31692,34 +38354,34 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="B155" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="C155" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="D155" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="E155" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="F155" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="G155">
         <v>3</v>
       </c>
       <c r="H155" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="I155" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="J155" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="K155">
         <v>1</v>
@@ -31727,19 +38389,19 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B156" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C156" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D156" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E156" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -32084,34 +38746,34 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="C177" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="D177" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="E177" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="F177" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="G177">
         <v>3</v>
       </c>
       <c r="H177" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="I177" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="J177" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="K177">
         <v>2</v>
@@ -32119,19 +38781,19 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B178" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C178" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D178" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E178" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -32476,34 +39138,34 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="B199" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="C199" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="D199" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="E199" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="F199" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="G199">
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="I199" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="J199" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="K199">
         <v>3</v>
@@ -32511,19 +39173,19 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B200" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C200" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D200" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E200" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -32868,34 +39530,34 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="B221" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="C221" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="D221" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="E221" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="F221" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="G221">
         <v>3</v>
       </c>
       <c r="H221" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="I221" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="J221" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="K221">
         <v>4</v>
@@ -32903,19 +39565,19 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B222" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C222" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="D222" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E222" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -33269,7 +39931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -33602,555 +40264,829 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3.3007860183715799E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>8.3018541336059501E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.150033473968505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0.18204045295715299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0.27406287193298301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.435231924057006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0.534121513366699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.65979242324829102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0.73516583442687899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0.84619212150573697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>1.04573845863342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>1.3831138610839799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>1.62489342689514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1.88568663597106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>2.40254354476928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>2.6626007556915199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>3.0876977443695002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>3.3837647438049299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
       </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>66</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>5.2011013031005797E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>67</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>7.1015119552612305E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0.115026712417602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>0.195044040679931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>0.26906085014343201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>0.376084804534912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>0.53011941909789995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>0.66414928436279297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>0.80118656158447199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>0.91120576858520497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>1.13425540924072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>1.3583066463470399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>1.7353920936584399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>2.02845859527587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>2.27451300621032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>2.6726038455963099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>3.08121514320373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>3.3575625419616699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>4.1006088256835903E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>70</v>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>7.0015907287597601E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>71</v>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>0.108024358749389</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>72</v>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>0.150034189224243</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>73</v>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>0.24805641174316401</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>74</v>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>0.29506635665893499</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>0.37408494949340798</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>76</v>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>0.57513499259948697</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>77</v>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>0.70154476165771396</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>78</v>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>0.81752657890319802</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>79</v>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>1.0352337360382</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>80</v>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>1.23828029632568</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>81</v>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>1.4573280811309799</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>82</v>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>1.7053852081298799</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>83</v>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>1.9664435386657699</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>84</v>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>19</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>2.18849396705627</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>85</v>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>2.6235930919647199</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>167</v>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>21</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>2.8676476478576598</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sim2.xlsx
+++ b/sim2.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nontree" sheetId="3" r:id="rId1"/>
-    <sheet name="fulltree" sheetId="1" r:id="rId2"/>
-    <sheet name="3fillingtree" sheetId="2" r:id="rId3"/>
+    <sheet name="fulltreebym" sheetId="1" r:id="rId2"/>
+    <sheet name="fulltreebyh" sheetId="4" r:id="rId3"/>
+    <sheet name="3fillingtree" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="85">
   <si>
     <t>2,1,1</t>
   </si>
@@ -268,6 +269,15 @@
   <si>
     <t>m=3</t>
   </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>nr_of agents</t>
+  </si>
+  <si>
+    <t>nodes</t>
+  </si>
 </sst>
 </file>
 
@@ -1342,7 +1352,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2191,7 +2200,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2299,7 +2307,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3148,7 +3155,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7917,7 +7923,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8331,7 +8336,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -39929,332 +39933,771 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1.60033702850341E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>0.24605441093444799</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>2.4795608520507799</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>2.3415281772613499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>29.145289659500101</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>27.299164056777901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>114</v>
+      </c>
+      <c r="G8">
+        <v>364.56593537330599</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>48</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>333.89819359779301</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>49</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4.3013572692870997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4.2545557022094699E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>0.82875823974609297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>0.87822794914245605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0.77917575836181596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>19.390986919403002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>19.132431268691999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <v>18.7652361392974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>121</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>174</v>
+      </c>
+      <c r="G18">
+        <v>509.44014835357598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>121</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>174</v>
+      </c>
+      <c r="G19">
+        <v>499.81116175651499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>362</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>6</v>
       </c>
+      <c r="F20">
+        <v>537</v>
+      </c>
+      <c r="G20">
+        <v>14886.696043968201</v>
+      </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>362</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>537</v>
+      </c>
+      <c r="G21">
+        <v>14898.4507956504</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>8.2447767257690402E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>6.2896251678466797E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>6.5819025039672796E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>7.7018022537231404E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>2.2841086387634202</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>2.28408622741699</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>2.4539549350738499</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>1.99644970893859</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>85</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>108</v>
+      </c>
+      <c r="G30">
+        <v>98.317289352416907</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>85</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>108</v>
+      </c>
+      <c r="G31">
+        <v>98.331395387649494</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>108</v>
+      </c>
+      <c r="G32">
+        <v>99.439310073852496</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>85</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>84</v>
+      </c>
+      <c r="G33">
+        <v>93.715158700942993</v>
       </c>
     </row>
   </sheetData>
@@ -40264,9 +40707,344 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
